--- a/docs/assets/disciplinas/LOQ4009.xlsx
+++ b/docs/assets/disciplinas/LOQ4009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -159,7 +159,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1011 -  Eletricidade Aplicada  (Requisito fraco)
+    <t xml:space="preserve">LOB1006 -  Cálculo IV  (Requisito fraco)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4083 -  Fenômenos de Transporte I  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -516,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,6 +765,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4009.xlsx
+++ b/docs/assets/disciplinas/LOQ4009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os fundamentos do controle automático de processos. Apresentar os diversos instrumentos utilizados para medição de pressão, temperatura, nível e vazão, e os dispositivos dos sistemas de automação de processos.</t>
+    <t>5840643 - Luiz Carlos de Queiroz</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840643 - Luiz Carlos de Queiroz</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos do controle automático de processos. Simbologia. Medição de pressão. Medição de temperatura.Medição de nível. Medição de vazão. Controladores. Elementos finais de controle. Transmissão. Sistemas de automação de processos industriais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -98,17 +95,6 @@
   </si>
   <si>
     <t>Programa:</t>
-  </si>
-  <si>
-    <t>1- INTRODUÇÃO AO CONTROLE AUTOMÁTICO DE PROCESSOS. - Introdução. - Malhas aberta e fechada. - Simbologia. - Realimentação. - Diagramas de blocos. - Função de transferência. - Noções de resposta ao degrau do processo de primeira ordem.
-2- MEDIÇÃO DE PRESSÃO. - Métodos a coluna líquida. - Métodos a elementos elásticos. - Métodos elétricos.
-3- MEDIÇÃO DE TEMPERATURA. - Termopares. - Termômetros de resistência. - Termômetros a volume repleto. - Termômetros bimetálicos. -Termômetros de líquido em vidro. - Pirômetros.
-4- MEDIÇÃO DE NÍVEL. - Bóias. - Corpo imerso. - Dispositivos a pressão.
-5- MEDIÇÃO DE VAZÃO. - Placa de orifício, Venturi, rotâmetro. - Medidor magnético. - Medidor de vazão mássica Coriolis.
-6- CONTROLADORES. - Controle a duas posições, controle proporcional, controle proporcional e integral, e controle proporcional, integral e derivativo. - Controlador Lógico Programável.
-7- ELEMENTO FINAL DE CONTROLE. - Válvulas de controle.
-8- TRANSMISSÃO. - Transmissão de sinais.
-9- SISTEMAS DE AUTOMAÇÃO DE PROCESSOS INDUSTRIAIS.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -131,29 +117,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas: P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média das notas obtidas nas duas provas: N1 = (P1 + P2)/2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Uma prova escrita: REC. /  Média das notas N1 e REC: N2 = (N1 + REC)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) ALVES, J. L. L. Instrumentação, Controle e Automação de Processos. 2ª ed. Rio de Janeiro: LTC, 2010.
-2) BEGA, E. A. (Organizador) Instrumentação Industrial. 3ª ed. Rio de Janeiro: Interciência: IBP, 2011.
-3) BALBINOT, A.; BRUSAMARELLO, V. J. Instrumentação e Fundamentos de Medidas. vols 1 e 2. 2ª ed. Rio de Janeiro: LTC, 2011.
-4) PERRY, R. H.; CHILTON, C. H. Manual de Engenharia Química. 5ª ed. Rio de Janeiro: Guanabara Dois, 1986. Seção 22.
-5) SIGHIERI, L.; NISHINARI, A. Controle Automático de Processos Industriais:      Instrumentação. 2ª ed. São Paulo: Edgard Blücher, 1973.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -520,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,34 +630,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -692,85 +674,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4009.xlsx
+++ b/docs/assets/disciplinas/LOQ4009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os fundamentos do controle automático de processos. Apresentar os diversos instrumentos utilizados para medição de pressão, temperatura, nível e vazão, e os dispositivos dos sistemas de automação de processos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present the fundamentals of control process. To present the instruments to pressure measurement, temperature, level and flow, and devices of process automation systems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840643 - Luiz Carlos de Queiroz</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present the fundamentals of control process. To present the instruments to pressure measurement, temperature, level and flow, and devices of process automation systems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos do controle automático de processos. Simbologia. Medição de pressão. Medição de temperatura.Medição de nível. Medição de vazão. Controladores. Elementos finais de controle. Transmissão. Sistemas de automação de processos industriais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,6 +98,17 @@
   </si>
   <si>
     <t>Programa:</t>
+  </si>
+  <si>
+    <t>1- INTRODUÇÃO AO CONTROLE AUTOMÁTICO DE PROCESSOS. - Introdução. - Malhas aberta e fechada. - Simbologia. - Realimentação. - Diagramas de blocos. - Função de transferência. - Noções de resposta ao degrau do processo de primeira ordem.
+2- MEDIÇÃO DE PRESSÃO. - Métodos a coluna líquida. - Métodos a elementos elásticos. - Métodos elétricos.
+3- MEDIÇÃO DE TEMPERATURA. - Termopares. - Termômetros de resistência. - Termômetros a volume repleto. - Termômetros bimetálicos. -Termômetros de líquido em vidro. - Pirômetros.
+4- MEDIÇÃO DE NÍVEL. - Bóias. - Corpo imerso. - Dispositivos a pressão.
+5- MEDIÇÃO DE VAZÃO. - Placa de orifício, Venturi, rotâmetro. - Medidor magnético. - Medidor de vazão mássica Coriolis.
+6- CONTROLADORES. - Controle a duas posições, controle proporcional, controle proporcional e integral, e controle proporcional, integral e derivativo. - Controlador Lógico Programável.
+7- ELEMENTO FINAL DE CONTROLE. - Válvulas de controle.
+8- TRANSMISSÃO. - Transmissão de sinais.
+9- SISTEMAS DE AUTOMAÇÃO DE PROCESSOS INDUSTRIAIS.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -117,22 +131,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas: P1 e P2.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas: P1 e P2.</t>
+    <t>Média das notas obtidas nas duas provas: N1 = (P1 + P2)/2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média das notas obtidas nas duas provas: N1 = (P1 + P2)/2.</t>
+    <t>Uma prova escrita: REC. /  Média das notas N1 e REC: N2 = (N1 + REC)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Uma prova escrita: REC. /  Média das notas N1 e REC: N2 = (N1 + REC)/2.</t>
+    <t>1) ALVES, J. L. L. Instrumentação, Controle e Automação de Processos. 2ª ed. Rio de Janeiro: LTC, 2010.
+2) BEGA, E. A. (Organizador) Instrumentação Industrial. 3ª ed. Rio de Janeiro: Interciência: IBP, 2011.
+3) BALBINOT, A.; BRUSAMARELLO, V. J. Instrumentação e Fundamentos de Medidas. vols 1 e 2. 2ª ed. Rio de Janeiro: LTC, 2011.
+4) PERRY, R. H.; CHILTON, C. H. Manual de Engenharia Química. 5ª ed. Rio de Janeiro: Guanabara Dois, 1986. Seção 22.
+5) SIGHIERI, L.; NISHINARI, A. Controle Automático de Processos Industriais:      Instrumentação. 2ª ed. São Paulo: Edgard Blücher, 1973.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -499,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -630,37 +651,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -674,74 +692,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
